--- a/September.xlsx
+++ b/September.xlsx
@@ -1195,10 +1195,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="A1:XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1229,6 +1229,11 @@
           <t>1.22</t>
         </is>
       </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="inlineStr">
@@ -1251,6 +1256,11 @@
           <t>1.36</t>
         </is>
       </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
@@ -1273,6 +1283,11 @@
           <t>1.30</t>
         </is>
       </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
@@ -1317,6 +1332,11 @@
           <t>1.30</t>
         </is>
       </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
@@ -1339,6 +1359,11 @@
           <t>1.32</t>
         </is>
       </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
@@ -1383,8 +1408,475 @@
           <t>1.37</t>
         </is>
       </c>
-    </row>
-    <row r="9"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 17:00</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6727284</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>DWG KIA</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 18:00</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724653</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>요코하마 F 마리노스</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 18:00</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6727285</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>FunPlus Phoenix</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 21:00</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724614</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>FC 뉘른베르크 B</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 22:00</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724741</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>말뫼 FF</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 22:30</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724775</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>플린트 타운 유나이티드</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 22:30</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6728626</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>엘링 홀란드 (보루시아 도르트문트)</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 23:00</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724475</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>FK 믈라다볼레슬라프</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 23:00</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724493</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>풀럼 FC</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 23:00</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724714</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Kelty Hearts</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 23:00</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724717</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>셀틱 FC</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 00:00</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724616</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SV 바커 부르크하우젠</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 01:30</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6728702</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>인터밀란</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 02:00</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724719</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>FK 츠르베나 즈베즈다</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 03:00</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724461</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PFC 루도고레츠 라즈그라드</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 03:00</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6728420</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PSV 에인트호번</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 04:00</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724471</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>NK 디나모 자그레브</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 06:00</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724466</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>아틀레티코 나시오날</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 07:30</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724483</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>우니베르시다드 카톨리카</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 08:30</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724451</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Independiente Petrolero</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 09:00</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724769</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>뉴잉글랜드 레볼루션</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/September.xlsx
+++ b/September.xlsx
@@ -1195,7 +1195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1408,7 +1408,7 @@
           <t>1.37</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>적중</t>
         </is>
@@ -1435,6 +1435,11 @@
           <t>1.25</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>적중</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1876,7 +1881,205 @@
         </is>
       </c>
     </row>
-    <row r="30"/>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 20:30</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6728331</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>리버풀 FC</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 21:00</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724619</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>VfB 뤼베크</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-21 22:00</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6724582</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>JK 농므 칼주</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 08:30</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6735728</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>피츠버그</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 11:00</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>bgm_v_6735731</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>라스베가스</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 08:30</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6735728</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>피츠버그</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 11:00</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>bgm_v_6735731</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>라스베가스</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 08:30</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>bgm_h_6735728</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>피츠버그</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>2021-08-22 11:00</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>bgm_v_6735731</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>라스베가스</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
